--- a/similarities/split_global/harmonic_similarity_timestamps_215.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_215.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,506 +484,532 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_5</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_24</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:23.280000', '0:00:26.480000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:37.490000', '0:00:43.170000')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=23.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-24#t=37.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>isophonics_125</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['A:min', 'D', 'D/2']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['G#:min/B', 'C#:maj', 'C#:maj/G#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000')]</t>
+          <t>('0:01:16.299013', '0:01:18.748718')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:00:08.680000', '0:00:11.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=76.299013</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=8.68</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:00.421247', '0:00:04.824512')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:43.140000', '0:01:00.240000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min', 'A#:min/F']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:17.380000'), ('0:00:41.380000', '0:00:43.340000'), ('0:01:27.200000', '0:01:37.220000')]</t>
+          <t>('0:01:06.040000', '0:01:11.560000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000'), ('0:00:24.680000', '0:00:31.240000'), ('0:00:08.400000', '0:00:12.140000')]</t>
+          <t>('0:01:53.920000', '0:02:08.800000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=87.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=66.04</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=113.92</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:00.720000', '0:01:12.720000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:20.050000', '0:00:26.800000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=60.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:10.260000', '0:00:24.700000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:18.100000', '0:00:44.900000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=18.1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:02:55.680000', '0:02:57.820000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:44.120000', '0:00:48.280000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=175.68</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=44.12</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:09.600000', '0:00:13.300000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=9.6</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab:7', 'Db', 'Ab:7', 'Db', 'Bb:7', 'Eb:min', 'G:dim7', 'Db']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'C:7', 'F:min', 'F#:dim7', 'Eb']]</t>
+          <t>['G', 'C', 'G', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:38.300000', '0:01:54.140000')]</t>
+          <t>('0:01:14.879000', '0:01:27.795000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:56.440000', '0:01:12.070000')]</t>
+          <t>('0:00:03.826054', '0:00:16.608639')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=98.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=56.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:min/F', 'F:7', 'A#:min'], ['C#/F', 'A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:23.500000', '0:00:31.240000'), ('0:01:09', '0:01:14.900000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:41.180000', '0:00:52.640000'), ('0:00:35.140000', '0:00:43.900000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=23.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=69.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=41.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['A', 'E', 'E:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:01:00.100000', '0:01:05.020000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:01:32.241000', '0:01:38.929000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=60.1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=92.241</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -992,186 +1018,196 @@
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:02.500000', '0:00:26.200000'), ('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:02:12.300000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:08.720000', '0:00:10.480000'), ('0:00:00.240000', '0:00:08.180000')]</t>
+          <t>('0:03:37.493000', '0:03:42.528000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E'], ['A', 'E', 'E:7']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C'], ['F', 'C', 'C:7']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:32.669000'), ('0:01:32.241000', '0:01:38.929000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000'), ('0:00:36.970000', '0:00:40.820000')]</t>
+          <t>('0:03:56.400000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=92.241']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41', 'https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=36.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:43', '0:02:02.840000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:09.440000')]</t>
+          <t>('0:02:08.540000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:07.102281', '0:00:24.401147')]</t>
+          <t>('0:02:03.220000', '0:02:07.180000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=7.102281']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
